--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3710391.080468716</v>
+        <v>3813802.816432795</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498524</v>
+        <v>416855.1052283178</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7431601.798216191</v>
+        <v>7396572.076943436</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>341.9582190164936</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>335.2180816111918</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -795,7 +797,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494248</v>
+        <v>232.8005871494241</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>188.8434718521925</v>
+        <v>64.38411577531483</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>26.89854620008827</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>240.8166023072773</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>144.1100466569967</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>176.7438835400996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>129.5398680316074</v>
       </c>
       <c r="C8" t="n">
-        <v>34.86296951216472</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>92.1025307747437</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>48.97176791380235</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,19 +1584,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>180.2847226981447</v>
       </c>
       <c r="V13" t="n">
-        <v>178.2798710842933</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.0536352423264</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>105.11626575513</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>119.8264588081772</v>
       </c>
       <c r="H19" t="n">
-        <v>115.4764219077143</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>170.9457618790573</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>177.8304655333027</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2375,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2482,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>78.58522891595237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>72.57619040703568</v>
       </c>
     </row>
     <row r="26">
@@ -2609,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2719,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>88.27810958517699</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>40.37234576591526</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695513</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898984</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652581</v>
+        <v>81.26583631856538</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012152</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>245.8796921214464</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187895</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,22 +3082,22 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652575</v>
+        <v>81.26583631856538</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012152</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972046</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>173.5740289795558</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>38.37250637580733</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972035</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808293</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>32.57570591153986</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308924</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>70.0455488112438</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4138,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>95.12712756824217</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>245.9350989189676</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>769.482504888653</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,22 +4327,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176916</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906802</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>1986.901740067214</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y2" t="n">
-        <v>1986.901740067214</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.7293032143256</v>
+        <v>2716.469702987217</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7293032143256</v>
+        <v>2716.469702987217</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143256</v>
+        <v>2716.469702987217</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>2568.556609404824</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>2568.556609404824</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>2568.556609404824</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>2568.556609404824</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U4" t="n">
-        <v>730.1360241493036</v>
+        <v>3260.571361230065</v>
       </c>
       <c r="V4" t="n">
-        <v>730.1360241493036</v>
+        <v>3005.886873024178</v>
       </c>
       <c r="W4" t="n">
-        <v>440.718854112343</v>
+        <v>2716.469702987217</v>
       </c>
       <c r="X4" t="n">
-        <v>212.7293032143256</v>
+        <v>2716.469702987217</v>
       </c>
       <c r="Y4" t="n">
-        <v>212.7293032143256</v>
+        <v>2716.469702987217</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1921.870414581995</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="C5" t="n">
-        <v>1921.870414581995</v>
+        <v>806.3384156653776</v>
       </c>
       <c r="D5" t="n">
-        <v>1563.604715975244</v>
+        <v>806.3384156653776</v>
       </c>
       <c r="E5" t="n">
-        <v>1177.816463377</v>
+        <v>806.3384156653776</v>
       </c>
       <c r="F5" t="n">
-        <v>766.8305585873923</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>351.7581084323887</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883008</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>3072.075344883008</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2698.609586621928</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y5" t="n">
-        <v>2308.470254646116</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="6">
@@ -4638,16 +4640,16 @@
         <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.8377936138381</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8377936138381</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>685.4908448817769</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>685.4908448817769</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438286</v>
+        <v>685.4908448817769</v>
       </c>
       <c r="V7" t="n">
-        <v>631.7841389438286</v>
+        <v>685.4908448817769</v>
       </c>
       <c r="W7" t="n">
-        <v>342.366968906868</v>
+        <v>396.0736748448162</v>
       </c>
       <c r="X7" t="n">
-        <v>342.366968906868</v>
+        <v>396.0736748448162</v>
       </c>
       <c r="Y7" t="n">
-        <v>163.8377936138381</v>
+        <v>396.0736748448162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1969.42314369238</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993394</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3119.628073993394</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2746.162315732314</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y8" t="n">
-        <v>2356.022983756502</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986302</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>457.9680739783734</v>
+        <v>700.0944266746544</v>
       </c>
       <c r="C10" t="n">
-        <v>457.9680739783734</v>
+        <v>700.0944266746544</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>549.9777872623187</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>549.9777872623187</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>403.0878397644083</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4957,55 +4959,55 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>871.420573582021</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>679.7346894088473</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>457.9680739783734</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>457.9680739783734</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>457.9680739783734</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>457.9680739783734</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>457.9680739783734</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
-        <v>457.9680739783734</v>
+        <v>700.0944266746544</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5130,10 +5132,10 @@
         <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1795.355300007332</v>
       </c>
       <c r="V13" t="n">
-        <v>1508.305175991783</v>
+        <v>1540.670811801445</v>
       </c>
       <c r="W13" t="n">
-        <v>1508.305175991783</v>
+        <v>1251.253641764485</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5355,19 +5357,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.1865537761979</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>781.250370848291</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5473,13 +5475,13 @@
         <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761979</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928005</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167292</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572603</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="D19" t="n">
-        <v>377.6556127449245</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="E19" t="n">
-        <v>377.6556127449245</v>
+        <v>585.5419721347374</v>
       </c>
       <c r="F19" t="n">
-        <v>377.6556127449245</v>
+        <v>438.652024636827</v>
       </c>
       <c r="G19" t="n">
-        <v>210.4595134598044</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.7825789706076</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="C22" t="n">
-        <v>391.8463960427007</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D22" t="n">
-        <v>241.729756630365</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T22" t="n">
-        <v>2024.390058741045</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="U22" t="n">
-        <v>1735.314832085242</v>
+        <v>4151.857387650099</v>
       </c>
       <c r="V22" t="n">
-        <v>1480.630343879355</v>
+        <v>3897.172899444212</v>
       </c>
       <c r="W22" t="n">
-        <v>1191.213173842395</v>
+        <v>3607.755729407251</v>
       </c>
       <c r="X22" t="n">
-        <v>963.2236229443774</v>
+        <v>3428.128996545329</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.4310438008473</v>
+        <v>3207.336417401799</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6011,25 +6013,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>954.2476448606607</v>
+        <v>3194.624135499466</v>
       </c>
       <c r="C25" t="n">
-        <v>785.3114619327538</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D25" t="n">
-        <v>635.194822520418</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="E25" t="n">
-        <v>487.2817289380249</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F25" t="n">
-        <v>340.3917814401145</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G25" t="n">
-        <v>173.1956821549945</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487568</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588918</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>3449.581883569136</v>
       </c>
       <c r="Y25" t="n">
-        <v>1135.8961096909</v>
+        <v>3376.272600329706</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6214,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2824.769373306004</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C28" t="n">
-        <v>2655.833190378097</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D28" t="n">
-        <v>2655.833190378097</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>2566.663382716302</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>2419.773435218392</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218392</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.37685307644</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420638</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.617138214751</v>
+        <v>1647.605706616408</v>
       </c>
       <c r="W28" t="n">
-        <v>3455.199968177791</v>
+        <v>1358.188536579448</v>
       </c>
       <c r="X28" t="n">
-        <v>3227.210417279774</v>
+        <v>1130.19898568143</v>
       </c>
       <c r="Y28" t="n">
-        <v>3006.417838136244</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6442,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,40 +6475,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6549,16 +6551,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>929.7309773356187</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>779.6143379232831</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>631.7012443408901</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038348</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838287</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1729.097755135312</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>1729.097755135312</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582391</v>
+        <v>1501.108204237295</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400517</v>
+        <v>1280.315625093765</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616864</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,40 +6712,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913447</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>2715.159942084667</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>2715.159942084667</v>
       </c>
       <c r="M33" t="n">
-        <v>1577.52840832642</v>
+        <v>3312.538429711219</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>3940.136393265826</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>4492.046123505113</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>4492.046123505113</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>929.7309773356187</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>779.6143379232831</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>631.7012443408901</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038348</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1722.776592304624</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1547.449290305073</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6934,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,13 +6970,13 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>2715.159942084667</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>3210.485548300426</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M36" t="n">
-        <v>3807.864035926978</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N36" t="n">
-        <v>3807.864035926978</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>4033.948342528643</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319329</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656823</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580118</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345478</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>990.5373202159263</v>
       </c>
     </row>
     <row r="38">
@@ -7181,31 +7183,31 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961526</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="41">
@@ -7406,52 +7408,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111696</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319332</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656826</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150032</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942664</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838287</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582391</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400517</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>3026.711098656041</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8993044876693</v>
+        <v>3026.711098656041</v>
       </c>
       <c r="D46" t="n">
-        <v>580.8993044876693</v>
+        <v>2876.594459243706</v>
       </c>
       <c r="E46" t="n">
-        <v>580.8993044876693</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>3429.152142629811</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>3429.152142629811</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>3208.359563486281</v>
       </c>
     </row>
   </sheetData>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>105.8997516910995</v>
       </c>
       <c r="V13" t="n">
-        <v>73.85777223953465</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5618377758859765</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>181.406732581461</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>45.69767948409162</v>
       </c>
       <c r="H19" t="n">
-        <v>24.81829093850963</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>46.45968844823099</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>47.87918985573444</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>61.70948393027149</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>146.0084629450591</v>
       </c>
     </row>
     <row r="26">
@@ -24607,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>58.15585306139218</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>211.7652975579127</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24892,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>6.257951202381435</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25129,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>112.9489693570351</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>141.4594738061299</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>193.1339494774973</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>216.1389255780003</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>50.29392045468907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>40.58789941762342</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>640787.2138850626</v>
+        <v>640787.2138850625</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>640787.2138850625</v>
+        <v>640787.2138850626</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>640787.2138850625</v>
+        <v>640787.2138850626</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>651555.9707701275</v>
+        <v>640787.2138850626</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>651555.9707701275</v>
+        <v>640787.2138850627</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>651555.9707701275</v>
+        <v>640787.2138850625</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>651555.9707701275</v>
+        <v>640787.2138850625</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>651555.9707701275</v>
+        <v>640787.2138850626</v>
       </c>
     </row>
     <row r="16">
@@ -26314,10 +26316,10 @@
         <v>800515.7256176759</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.725617676</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="E2" t="n">
         <v>786967.934697756</v>
@@ -26326,34 +26328,34 @@
         <v>786967.9346977557</v>
       </c>
       <c r="G2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="H2" t="n">
-        <v>786967.9346977561</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="K2" t="n">
-        <v>800515.7256176772</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.725617676</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.7256176757</v>
-      </c>
-      <c r="N2" t="n">
-        <v>800515.7256176772</v>
-      </c>
       <c r="O2" t="n">
-        <v>800515.7256176771</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363178</v>
+        <v>1.212659602363904e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.212659602363904e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26430,7 +26432,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189197</v>
@@ -26442,19 +26444,19 @@
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>24037.44323498544</v>
+        <v>16046.58397189212</v>
       </c>
       <c r="L4" t="n">
-        <v>24037.44323498544</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="M4" t="n">
-        <v>24037.44323498544</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>24037.44323498544</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>24037.44323498544</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729759.7047753625</v>
+        <v>-729759.7047753623</v>
       </c>
       <c r="C6" t="n">
-        <v>598985.0409522299</v>
+        <v>598985.04095223</v>
       </c>
       <c r="D6" t="n">
-        <v>598985.0409522302</v>
+        <v>598985.0409522303</v>
       </c>
       <c r="E6" t="n">
-        <v>344386.3590946018</v>
+        <v>344386.3590946014</v>
       </c>
       <c r="F6" t="n">
+        <v>669798.8209019569</v>
+      </c>
+      <c r="G6" t="n">
+        <v>669798.8209019564</v>
+      </c>
+      <c r="H6" t="n">
+        <v>669798.8209019564</v>
+      </c>
+      <c r="I6" t="n">
+        <v>669798.8209019564</v>
+      </c>
+      <c r="J6" t="n">
+        <v>452267.6185046794</v>
+      </c>
+      <c r="K6" t="n">
+        <v>669798.8209019562</v>
+      </c>
+      <c r="L6" t="n">
         <v>669798.8209019566</v>
       </c>
-      <c r="G6" t="n">
-        <v>669798.8209019569</v>
-      </c>
-      <c r="H6" t="n">
-        <v>669798.820901957</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
+        <v>584743.792966445</v>
+      </c>
+      <c r="N6" t="n">
         <v>669798.8209019566</v>
       </c>
-      <c r="J6" t="n">
-        <v>452267.6185046791</v>
-      </c>
-      <c r="K6" t="n">
-        <v>653886.4485351446</v>
-      </c>
-      <c r="L6" t="n">
-        <v>673314.1665287752</v>
-      </c>
-      <c r="M6" t="n">
-        <v>588259.138593263</v>
-      </c>
-      <c r="N6" t="n">
-        <v>673314.1665287763</v>
-      </c>
       <c r="O6" t="n">
-        <v>673314.1665287763</v>
+        <v>669798.8209019565</v>
       </c>
       <c r="P6" t="n">
         <v>669798.8209019565</v>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,22 +26804,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
@@ -26826,7 +26828,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26960,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>39.97215105576817</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>34.51301906727724</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27515,7 +27517,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27543,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27554,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,16 +27593,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>97.36836635342038</v>
+        <v>221.8277224302981</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>379.9774995416232</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>53.79116208004316</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>45.65897867444522</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.84076981199522</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>253.1939736318731</v>
       </c>
       <c r="C8" t="n">
-        <v>330.4099222588428</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,16 +28016,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>73.92327748428453</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>39.96038475624498</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29509,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-2.899014361901209e-12</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29800,22 +29802,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>493.6049778318539</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,13 +32077,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
@@ -32090,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>225.4828684302374</v>
       </c>
       <c r="P18" t="n">
-        <v>297.7596336167237</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,28 +32788,28 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>506.566534435233</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32941,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33029,7 +33031,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338202</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33041,7 +33043,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.5996128485291</v>
@@ -33269,19 +33271,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33503,22 +33505,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>652.0478969157699</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>340.7767527663053</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33679,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33734,13 +33736,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>460.9249101897659</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33749,7 +33751,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>370.9642309107733</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214699</v>
@@ -33901,7 +33903,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159428</v>
@@ -33968,10 +33970,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
@@ -33983,19 +33985,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>336.3457189021232</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>225.4828684302374</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34208,7 +34210,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
@@ -34217,22 +34219,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>519.7862086120936</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34442,7 +34444,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,22 +34456,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>539.0475940357379</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>359.6305704175236</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>82.88662398579301</v>
       </c>
       <c r="P18" t="n">
-        <v>163.7852262023935</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394598</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>364.4325005132147</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36677,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394598</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36689,7 +36691,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625076</v>
@@ -36917,19 +36919,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295357</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899076</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.6317733066252</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>509.9138629937516</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>200.7949786802838</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295357</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899076</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.6317733066252</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>322.3705304098917</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,7 +37399,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>228.3679864663288</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071396</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193518</v>
@@ -37616,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37631,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>205.0040068187898</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>82.88662398579301</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,22 +37867,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>388.4444965287602</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,22 +38104,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>396.4513495912935</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3809790.206418804</v>
+        <v>3811550.736721588</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.296101769922522</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.296101769922059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.0880274467719</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>58.28185552386348</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>12.52650437061123</v>
       </c>
       <c r="H5" t="n">
-        <v>26.3653517776993</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.28185552386317</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="8">
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>188.605944229152</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>218.8748435506828</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1296,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>54.45803047044404</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>203.7029035467948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174124</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>85.71023095289448</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>115.7063133373732</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>93.40444476188321</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>139.5930054288739</v>
+        <v>77.93612009725524</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599955</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>156.2292142534452</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3040,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,16 +3246,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>117.4665281367401</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>95.12712756824166</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>142.1343012721637</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216692</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.91555826189063</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1303.529887077737</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>531.9613661254177</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>116.8889159704142</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,16 +4342,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
         <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1690.129727141859</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4424,13 +4424,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>125.382677567399</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1628.178203944119</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C5" t="n">
-        <v>1259.215687003708</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="D5" t="n">
-        <v>900.9499883969572</v>
+        <v>769.482504888653</v>
       </c>
       <c r="E5" t="n">
-        <v>515.1617357987129</v>
+        <v>383.6942522904088</v>
       </c>
       <c r="F5" t="n">
-        <v>104.1758310091054</v>
+        <v>376.7487515412053</v>
       </c>
       <c r="G5" t="n">
-        <v>93.14378489450591</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539435</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269321</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008241</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>2014.778044008241</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4707,67 +4707,67 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300937</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
         <v>862.0164446829692</v>
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>2196.097994299122</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1827.13547735871</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1468.86977875196</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>1083.081526153716</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678284</v>
+        <v>672.0956213641082</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218339</v>
+        <v>257.0231712091046</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,16 +4816,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
@@ -4840,16 +4840,16 @@
         <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>2582.697834363244</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218339</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218339</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>865.8788942318774</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>637.8893433338601</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.09676419033</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5035,19 +5035,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5190,55 +5190,55 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2110.486554626058</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1821.411327970255</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1566.726839764368</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1277.309669727408</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
         <v>1277.309669727408</v>
@@ -5266,49 +5266,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466574</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143764</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2238.914344045922</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U19" t="n">
-        <v>1949.83911739012</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V19" t="n">
-        <v>1695.154629184233</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W19" t="n">
-        <v>1405.737459147272</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X19" t="n">
-        <v>1177.747908249255</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y19" t="n">
-        <v>956.9553291057244</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,7 +5788,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5837,13 +5837,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5904,7 +5904,7 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,28 +6001,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>576.8388927589092</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6217,31 +6217,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,64 +6925,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2303.393082295247</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2083.791617318188</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7402,28 +7402,28 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2426.846358063199</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2243.991523718104</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.390058741045</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>131.6952193743938</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>77.81244489841438</v>
+        <v>139.469330230033</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.35543909864958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>134.6711151870879</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>72.11969353038617</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>38.89198472948087</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>32.89260457059964</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.45968844823106</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>640787.2138850625</v>
+        <v>640787.2138850626</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.7256176755</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176758</v>
@@ -26325,37 +26325,37 @@
         <v>786967.934697756</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="H2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="I2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="K2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.9346977556</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>786967.934697756</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977557</v>
       </c>
       <c r="O2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
     </row>
     <row r="3">
@@ -26365,28 +26365,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.025242651896029e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972774</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189197</v>
@@ -26447,10 +26447,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729759.7047753623</v>
+        <v>-729759.7047753627</v>
       </c>
       <c r="C6" t="n">
         <v>598985.0409522296</v>
       </c>
       <c r="D6" t="n">
-        <v>598985.0409522299</v>
+        <v>598985.04095223</v>
       </c>
       <c r="E6" t="n">
-        <v>344038.9798402446</v>
+        <v>344351.6211691658</v>
       </c>
       <c r="F6" t="n">
-        <v>669451.4416476</v>
+        <v>669764.082976521</v>
       </c>
       <c r="G6" t="n">
-        <v>669451.4416475998</v>
+        <v>669764.082976521</v>
       </c>
       <c r="H6" t="n">
-        <v>669451.4416475999</v>
+        <v>669764.082976521</v>
       </c>
       <c r="I6" t="n">
-        <v>669451.4416475998</v>
+        <v>669764.082976521</v>
       </c>
       <c r="J6" t="n">
-        <v>451920.2392503222</v>
+        <v>452232.8805792438</v>
       </c>
       <c r="K6" t="n">
-        <v>669451.4416475999</v>
+        <v>669764.0829765211</v>
       </c>
       <c r="L6" t="n">
-        <v>669451.4416475997</v>
+        <v>669764.0829765212</v>
       </c>
       <c r="M6" t="n">
-        <v>584396.413712088</v>
+        <v>584709.0550410091</v>
       </c>
       <c r="N6" t="n">
-        <v>669451.4416475997</v>
+        <v>669764.0829765212</v>
       </c>
       <c r="O6" t="n">
-        <v>669451.4416475998</v>
+        <v>669764.0829765211</v>
       </c>
       <c r="P6" t="n">
-        <v>669451.4416475999</v>
+        <v>669764.0829765212</v>
       </c>
     </row>
   </sheetData>
@@ -26694,31 +26694,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26962,25 +26962,25 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483757</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>286.3116626173979</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>377.9418368861315</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.7439527351654</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>107.7439527351648</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>398.3952212828422</v>
       </c>
       <c r="H5" t="n">
-        <v>268.2424126096212</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.3027978282316</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>106.0018201581684</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>108.8774149194521</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>232.064967866147</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>14.88174980530002</v>
       </c>
     </row>
     <row r="11">
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>5.464171643889758e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29760,10 +29760,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200311</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366978</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121327</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
